--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>104925.0599377173</v>
+        <v>102223.8432862604</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>212.568965117905</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,58 +671,58 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>221.0427070190021</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>263.7138800015062</v>
       </c>
-      <c r="I2" t="n">
-        <v>115.3066195468971</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>152.7676931992223</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>263.7138800015062</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,16 +738,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>127.0305148314434</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -786,16 +786,16 @@
         <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>15.47206402995323</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>49.52574787423081</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>133.8522243658473</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>36.52762370292011</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,10 +908,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.41899097776993</v>
+        <v>383.6877278154311</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>309.9416328899766</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660376</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4722490968155</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>41.30666581573649</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>45.57083635823795</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333229</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.27346476951733</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>143.0237294698459</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.9455960238326</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8398728426018</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>61.2918283951104</v>
       </c>
     </row>
     <row r="7">
@@ -1054,28 +1054,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>95.07624021747338</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>116.5499160015377</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643678</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>111.1256255123414</v>
+        <v>222.4186055422208</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>84.79527148983823</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>97.42019225198186</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>176.533511757587</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>90.69811547110028</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1373,22 +1373,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393747</v>
+        <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184555</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615211</v>
       </c>
       <c r="T11" t="n">
-        <v>167.9229035685905</v>
+        <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
-        <v>250.959002459687</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>146.1043617568591</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1467,7 +1467,7 @@
         <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530787</v>
+        <v>10.48847705530788</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>30.43596263849407</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905236</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,16 +1582,16 @@
         <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2007761200435</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>219.1127955783094</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634796</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1774,10 +1774,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>100.2041656279968</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>35.41770597126595</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365919</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2002,16 +2002,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>63.38272884730823</v>
       </c>
       <c r="F19" t="n">
-        <v>9.146142788179651</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2239,16 +2239,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>41.55695577161157</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>180.9892048574044</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>80.67842139643678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,13 +2530,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>143.7703193541474</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428128</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,10 +2764,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>173.1371582055054</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>158.4589496224476</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>151.0997254264187</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179098</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053457</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3272,13 +3272,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3439,7 +3439,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428179</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428134</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0.8253826161902964</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710067</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>1.799772605716225</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>634.1670622275112</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="C2" t="n">
-        <v>634.1670622275112</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="D2" t="n">
-        <v>634.1670622275112</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E2" t="n">
-        <v>634.1670622275112</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F2" t="n">
-        <v>627.2215614783078</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G2" t="n">
-        <v>403.9460998429521</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
         <v>21.0971104001205</v>
@@ -4334,16 +4334,16 @@
         <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946892</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946892</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>900.5447187946892</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>900.5447187946892</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="W2" t="n">
-        <v>634.1670622275112</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="X2" t="n">
-        <v>634.1670622275112</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="Y2" t="n">
-        <v>634.1670622275112</v>
+        <v>522.1002068716687</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>180.334565405576</v>
+        <v>444.8797293793791</v>
       </c>
       <c r="C3" t="n">
-        <v>180.334565405576</v>
+        <v>316.5660780344868</v>
       </c>
       <c r="D3" t="n">
-        <v>180.334565405576</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="E3" t="n">
-        <v>21.0971104001205</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F3" t="n">
         <v>21.0971104001205</v>
@@ -4413,19 +4413,19 @@
         <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302311</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>529.474696326755</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4434,25 +4434,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="T3" t="n">
-        <v>839.7105578442525</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="U3" t="n">
-        <v>611.574711881066</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="V3" t="n">
-        <v>595.9463643760628</v>
+        <v>652.7312295849119</v>
       </c>
       <c r="W3" t="n">
-        <v>595.9463643760628</v>
+        <v>652.7312295849119</v>
       </c>
       <c r="X3" t="n">
-        <v>388.0948641705299</v>
+        <v>444.8797293793791</v>
       </c>
       <c r="Y3" t="n">
-        <v>180.334565405576</v>
+        <v>444.8797293793791</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>401.8068700310203</v>
+        <v>358.602653973024</v>
       </c>
       <c r="C4" t="n">
-        <v>401.8068700310203</v>
+        <v>189.666471045117</v>
       </c>
       <c r="D4" t="n">
-        <v>401.8068700310203</v>
+        <v>189.666471045117</v>
       </c>
       <c r="E4" t="n">
-        <v>351.7808620772518</v>
+        <v>189.666471045117</v>
       </c>
       <c r="F4" t="n">
-        <v>204.8909145793414</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
         <v>21.0971104001205</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S4" t="n">
-        <v>848.0684854165361</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="T4" t="n">
-        <v>622.5994491745504</v>
+        <v>493.8069210092334</v>
       </c>
       <c r="U4" t="n">
-        <v>622.5994491745504</v>
+        <v>493.8069210092334</v>
       </c>
       <c r="V4" t="n">
-        <v>622.5994491745504</v>
+        <v>493.8069210092334</v>
       </c>
       <c r="W4" t="n">
-        <v>622.5994491745504</v>
+        <v>493.8069210092334</v>
       </c>
       <c r="X4" t="n">
-        <v>622.5994491745504</v>
+        <v>358.602653973024</v>
       </c>
       <c r="Y4" t="n">
-        <v>401.8068700310203</v>
+        <v>358.602653973024</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>472.869796502672</v>
+        <v>1493.027006397344</v>
       </c>
       <c r="C5" t="n">
-        <v>472.869796502672</v>
+        <v>1124.064489456932</v>
       </c>
       <c r="D5" t="n">
-        <v>435.9732069037628</v>
+        <v>1124.064489456932</v>
       </c>
       <c r="E5" t="n">
-        <v>50.1849543055186</v>
+        <v>738.2762368586881</v>
       </c>
       <c r="F5" t="n">
-        <v>43.23945355631513</v>
+        <v>731.3307361094846</v>
       </c>
       <c r="G5" t="n">
-        <v>30.6950182252344</v>
+        <v>343.7673746797563</v>
       </c>
       <c r="H5" t="n">
-        <v>30.6950182252344</v>
+        <v>30.69501822523448</v>
       </c>
       <c r="I5" t="n">
-        <v>30.6950182252344</v>
+        <v>30.69501822523448</v>
       </c>
       <c r="J5" t="n">
-        <v>93.7664115927505</v>
+        <v>93.76641159275187</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245548</v>
+        <v>239.0325989245566</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825613</v>
+        <v>456.1499114825637</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748834</v>
+        <v>729.4041931748864</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202376</v>
+        <v>1011.69382320238</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798409</v>
+        <v>1264.916654798413</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189406</v>
+        <v>1446.53548218941</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.75091126172</v>
+        <v>1534.750911261724</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.75091126172</v>
+        <v>1534.750911261724</v>
       </c>
       <c r="S5" t="n">
-        <v>1389.996673518247</v>
+        <v>1534.750911261724</v>
       </c>
       <c r="T5" t="n">
-        <v>1177.398442107323</v>
+        <v>1534.750911261724</v>
       </c>
       <c r="U5" t="n">
-        <v>1177.398442107323</v>
+        <v>1534.750911261724</v>
       </c>
       <c r="V5" t="n">
-        <v>846.3355547637519</v>
+        <v>1534.750911261724</v>
       </c>
       <c r="W5" t="n">
-        <v>846.3355547637519</v>
+        <v>1534.750911261724</v>
       </c>
       <c r="X5" t="n">
-        <v>472.869796502672</v>
+        <v>1534.750911261724</v>
       </c>
       <c r="Y5" t="n">
-        <v>472.869796502672</v>
+        <v>1493.027006397344</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>629.7496473312888</v>
+        <v>696.4943335497361</v>
       </c>
       <c r="C6" t="n">
-        <v>629.7496473312888</v>
+        <v>522.0413042686091</v>
       </c>
       <c r="D6" t="n">
-        <v>480.8152376700375</v>
+        <v>373.1068946073578</v>
       </c>
       <c r="E6" t="n">
-        <v>321.577782664582</v>
+        <v>213.8694396019024</v>
       </c>
       <c r="F6" t="n">
-        <v>175.043224691467</v>
+        <v>67.33488162878734</v>
       </c>
       <c r="G6" t="n">
-        <v>129.012076854863</v>
+        <v>67.33488162878734</v>
       </c>
       <c r="H6" t="n">
-        <v>30.6950182252344</v>
+        <v>67.33488162878734</v>
       </c>
       <c r="I6" t="n">
-        <v>30.6950182252344</v>
+        <v>30.69501822523448</v>
       </c>
       <c r="J6" t="n">
-        <v>49.44206107563394</v>
+        <v>49.4420610756342</v>
       </c>
       <c r="K6" t="n">
-        <v>388.9600665101407</v>
+        <v>159.6385680169445</v>
       </c>
       <c r="L6" t="n">
-        <v>583.4554103414922</v>
+        <v>354.1339118482964</v>
       </c>
       <c r="M6" t="n">
-        <v>829.7791710122376</v>
+        <v>600.4576725190421</v>
       </c>
       <c r="N6" t="n">
-        <v>1097.031033584459</v>
+        <v>867.7095350912643</v>
       </c>
       <c r="O6" t="n">
-        <v>1319.294480749978</v>
+        <v>1098.496575411393</v>
       </c>
       <c r="P6" t="n">
-        <v>1478.347425948665</v>
+        <v>1478.34742594867</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.75091126172</v>
+        <v>1534.750911261724</v>
       </c>
       <c r="R6" t="n">
-        <v>1534.75091126172</v>
+        <v>1534.750911261724</v>
       </c>
       <c r="S6" t="n">
-        <v>1534.75091126172</v>
+        <v>1390.282497655819</v>
       </c>
       <c r="T6" t="n">
-        <v>1534.75091126172</v>
+        <v>1194.377855207503</v>
       </c>
       <c r="U6" t="n">
-        <v>1534.75091126172</v>
+        <v>966.2567715281077</v>
       </c>
       <c r="V6" t="n">
-        <v>1299.598803029977</v>
+        <v>966.2567715281077</v>
       </c>
       <c r="W6" t="n">
-        <v>1045.361446301775</v>
+        <v>966.2567715281077</v>
       </c>
       <c r="X6" t="n">
-        <v>837.5099460962426</v>
+        <v>758.4052713225749</v>
       </c>
       <c r="Y6" t="n">
-        <v>629.7496473312888</v>
+        <v>696.4943335497361</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>646.4753625676428</v>
+        <v>560.7531483301811</v>
       </c>
       <c r="C7" t="n">
-        <v>477.5391796397359</v>
+        <v>464.716542049905</v>
       </c>
       <c r="D7" t="n">
-        <v>327.4225402274002</v>
+        <v>464.716542049905</v>
       </c>
       <c r="E7" t="n">
-        <v>179.509446645007</v>
+        <v>316.8034484675119</v>
       </c>
       <c r="F7" t="n">
-        <v>32.6194991470967</v>
+        <v>316.8034484675119</v>
       </c>
       <c r="G7" t="n">
-        <v>32.6194991470967</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="H7" t="n">
-        <v>32.6194991470967</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="I7" t="n">
-        <v>32.6194991470967</v>
+        <v>30.69501822523448</v>
       </c>
       <c r="J7" t="n">
-        <v>30.6950182252344</v>
+        <v>30.69501822523448</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223264</v>
+        <v>157.4322756223267</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830384</v>
+        <v>375.1387655830389</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388145</v>
+        <v>615.0688576388152</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974815</v>
+        <v>854.7285647974824</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.076798891671</v>
+        <v>1060.076798891672</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.26700593402</v>
+        <v>1212.267005934022</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495182</v>
+        <v>1234.200536495184</v>
       </c>
       <c r="R7" t="n">
-        <v>1234.200536495182</v>
+        <v>1234.200536495184</v>
       </c>
       <c r="S7" t="n">
-        <v>1234.200536495182</v>
+        <v>1234.200536495184</v>
       </c>
       <c r="T7" t="n">
-        <v>1121.95242991706</v>
+        <v>1009.535278371729</v>
       </c>
       <c r="U7" t="n">
-        <v>1121.95242991706</v>
+        <v>1009.535278371729</v>
       </c>
       <c r="V7" t="n">
-        <v>867.267941711173</v>
+        <v>1009.535278371729</v>
       </c>
       <c r="W7" t="n">
-        <v>867.267941711173</v>
+        <v>1009.535278371729</v>
       </c>
       <c r="X7" t="n">
-        <v>867.267941711173</v>
+        <v>781.5457274737113</v>
       </c>
       <c r="Y7" t="n">
-        <v>646.4753625676428</v>
+        <v>560.7531483301811</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1660.900948886692</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="C8" t="n">
-        <v>1291.93843194628</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="D8" t="n">
-        <v>933.6727333395299</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="E8" t="n">
-        <v>547.8844807412856</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F8" t="n">
-        <v>136.8985759516781</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
@@ -4820,7 +4820,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2463.935093802194</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2255.189452408018</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2001.608391672198</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926626</v>
+        <v>1670.545504328627</v>
       </c>
       <c r="W8" t="n">
-        <v>2437.640120926626</v>
+        <v>1317.776849058513</v>
       </c>
       <c r="X8" t="n">
-        <v>2437.640120926626</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="Y8" t="n">
-        <v>2047.500788950814</v>
+        <v>944.3110907974335</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>168.0008189145204</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>614.5430248380231</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.9138669598622</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="C10" t="n">
-        <v>292.9776840319553</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="D10" t="n">
-        <v>142.8610446196195</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
         <v>51.24678656800311</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1021.765895288652</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>767.0814070827656</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.344461831649</v>
+        <v>767.0814070827656</v>
       </c>
       <c r="X10" t="n">
-        <v>864.354910933632</v>
+        <v>767.0814070827656</v>
       </c>
       <c r="Y10" t="n">
-        <v>643.5623317901019</v>
+        <v>546.2888279392355</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1950.79667383271</v>
+        <v>1922.466994964848</v>
       </c>
       <c r="C11" t="n">
-        <v>1581.834156892298</v>
+        <v>1553.504478024436</v>
       </c>
       <c r="D11" t="n">
-        <v>1581.834156892298</v>
+        <v>1195.238779417686</v>
       </c>
       <c r="E11" t="n">
-        <v>1196.045904294054</v>
+        <v>809.4505268194423</v>
       </c>
       <c r="F11" t="n">
-        <v>785.0599995044466</v>
+        <v>809.4505268194423</v>
       </c>
       <c r="G11" t="n">
-        <v>370.4442349455922</v>
+        <v>394.8347622605878</v>
       </c>
       <c r="H11" t="n">
-        <v>77.53766591592074</v>
+        <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
         <v>77.53766591592074</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706893</v>
+        <v>304.4060796706892</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656962</v>
+        <v>695.161540565696</v>
       </c>
       <c r="L11" t="n">
         <v>1216.830004625329</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087831</v>
+        <v>1828.956123087832</v>
       </c>
       <c r="N11" t="n">
         <v>2455.600890484043</v>
@@ -5066,25 +5066,25 @@
         <v>3876.883295796037</v>
       </c>
       <c r="S11" t="n">
-        <v>3876.883295796037</v>
+        <v>3776.999350345378</v>
       </c>
       <c r="T11" t="n">
-        <v>3707.264201282309</v>
+        <v>3573.020743926742</v>
       </c>
       <c r="U11" t="n">
-        <v>3453.770259403837</v>
+        <v>3573.020743926742</v>
       </c>
       <c r="V11" t="n">
-        <v>3453.770259403837</v>
+        <v>3425.440580535976</v>
       </c>
       <c r="W11" t="n">
-        <v>3101.001604133723</v>
+        <v>3072.671925265861</v>
       </c>
       <c r="X11" t="n">
-        <v>2727.535845872643</v>
+        <v>2699.206167004781</v>
       </c>
       <c r="Y11" t="n">
-        <v>2337.396513896831</v>
+        <v>2309.06683502897</v>
       </c>
     </row>
     <row r="12">
@@ -5112,25 +5112,25 @@
         <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390848</v>
+        <v>88.1320871839085</v>
       </c>
       <c r="I12" t="n">
         <v>77.53766591592074</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870414</v>
+        <v>193.8410919870413</v>
       </c>
       <c r="K12" t="n">
-        <v>193.8410919870414</v>
+        <v>470.7769964046656</v>
       </c>
       <c r="L12" t="n">
-        <v>503.2284887929935</v>
+        <v>889.4740370626173</v>
       </c>
       <c r="M12" t="n">
-        <v>1011.185054749522</v>
+        <v>1397.430603019146</v>
       </c>
       <c r="N12" t="n">
-        <v>1546.994364450732</v>
+        <v>1933.239912720356</v>
       </c>
       <c r="O12" t="n">
         <v>2014.935408783255</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>889.634909129818</v>
+        <v>1003.287366026812</v>
       </c>
       <c r="C13" t="n">
-        <v>720.6987262019111</v>
+        <v>834.3511830989049</v>
       </c>
       <c r="D13" t="n">
-        <v>570.5820867895753</v>
+        <v>684.2345436865692</v>
       </c>
       <c r="E13" t="n">
-        <v>422.6689932071822</v>
+        <v>536.3214501041761</v>
       </c>
       <c r="F13" t="n">
-        <v>275.7790457092719</v>
+        <v>389.4315026062657</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2810625204602</v>
+        <v>221.933519417454</v>
       </c>
       <c r="H13" t="n">
         <v>77.53766591592074</v>
@@ -5197,10 +5197,10 @@
         <v>77.53766591592074</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758648</v>
+        <v>136.8552218758649</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648147</v>
+        <v>364.1690246648145</v>
       </c>
       <c r="L13" t="n">
         <v>710.5788654344813</v>
@@ -5221,28 +5221,28 @@
         <v>2137.362968742808</v>
       </c>
       <c r="R13" t="n">
-        <v>2056.743466925584</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="S13" t="n">
-        <v>2056.743466925584</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="T13" t="n">
-        <v>1835.852134360024</v>
+        <v>1916.471636177249</v>
       </c>
       <c r="U13" t="n">
-        <v>1546.760441309475</v>
+        <v>1916.471636177249</v>
       </c>
       <c r="V13" t="n">
-        <v>1292.075953103588</v>
+        <v>1916.471636177249</v>
       </c>
       <c r="W13" t="n">
-        <v>1292.075953103588</v>
+        <v>1627.054466140288</v>
       </c>
       <c r="X13" t="n">
-        <v>1292.075953103588</v>
+        <v>1405.728410000582</v>
       </c>
       <c r="Y13" t="n">
-        <v>1071.283373960058</v>
+        <v>1184.935830857052</v>
       </c>
     </row>
     <row r="14">
@@ -5270,58 +5270,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913851</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972543</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.67509321183</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>808.8888553856864</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C16" t="n">
-        <v>639.9526724577795</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>489.8360330454436</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>341.9229394630504</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>195.0329919651401</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5452,7 +5452,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
@@ -5461,25 +5461,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235164</v>
+        <v>2411.187623003224</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258105</v>
+        <v>2191.586158026165</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1902.510931370363</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1647.826443164476</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X16" t="n">
-        <v>1211.329899359456</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y16" t="n">
-        <v>990.5373202159261</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5507,28 +5507,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5540,25 +5540,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.899304487669</v>
+        <v>763.7541388327645</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597622</v>
+        <v>763.7541388327645</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597622</v>
+        <v>613.6374994204288</v>
       </c>
       <c r="E19" t="n">
-        <v>411.9631215597622</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
@@ -5698,25 +5698,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614389</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179088</v>
+        <v>945.4026036630042</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5829,19 +5829,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>550.637687073287</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C22" t="n">
-        <v>550.637687073287</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D22" t="n">
-        <v>550.637687073287</v>
+        <v>444.7013164925217</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>444.7013164925217</v>
       </c>
       <c r="F22" t="n">
         <v>402.7245934908938</v>
@@ -5914,7 +5914,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2014.245166843724</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1725.169940187922</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>1470.485451982035</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>1181.068281945074</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X22" t="n">
-        <v>953.0787310470569</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y22" t="n">
-        <v>732.2861519035267</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5987,19 +5987,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.2707707770317</v>
+        <v>724.751986341302</v>
       </c>
       <c r="C25" t="n">
-        <v>634.3345878491248</v>
+        <v>555.8158034133951</v>
       </c>
       <c r="D25" t="n">
-        <v>484.2179484367891</v>
+        <v>555.8158034133951</v>
       </c>
       <c r="E25" t="n">
-        <v>484.2179484367891</v>
+        <v>407.902709831002</v>
       </c>
       <c r="F25" t="n">
-        <v>484.2179484367891</v>
+        <v>261.0127623330916</v>
       </c>
       <c r="G25" t="n">
-        <v>317.0218491516695</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.3100179938676</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1899.284239455937</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1644.59975125005</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.701365648819</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.711814750802</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.9192356072714</v>
+        <v>906.4004511715417</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400708</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121639</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121639</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121639</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121639</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270439</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2022.176527098168</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2022.176527098168</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1767.492038892281</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1478.07486885532</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138406</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703105</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>868.6673633290469</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C31" t="n">
-        <v>699.73118040114</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D31" t="n">
-        <v>549.6145409888042</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579362</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.348534373475</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W31" t="n">
-        <v>1430.931364336514</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X31" t="n">
-        <v>1202.941813438497</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y31" t="n">
-        <v>1050.315828159287</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="32">
@@ -6692,25 +6692,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>571.6607764188007</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6874,19 +6874,19 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832662</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U34" t="n">
         <v>1746.193029533435</v>
@@ -6901,7 +6901,7 @@
         <v>974.1018203925705</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>753.3092412490404</v>
       </c>
     </row>
     <row r="35">
@@ -6920,10 +6920,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,16 +6932,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400713</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121644</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121644</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121644</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121644</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270444</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7123,22 +7123,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703111</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7154,10 +7154,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270444</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7372,10 +7372,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,31 +7430,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270439</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2263.27452942083</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
         <v>1948.813509611463</v>
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7673,25 +7673,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745237</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400713</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121644</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121644</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121644</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121644</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138412</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703111</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>97.32166909127241</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127245</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438637034</v>
+        <v>34.43939438637014</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>231.6378772658552</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,10 +8307,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>8.609690055161593</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>223.0281872106959</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>54.95314511566572</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>240.4465442417443</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -23261,13 +23261,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184549</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615208</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>34.01591678585868</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>181.6478967132758</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>112.5159323280238</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>90.25352389927373</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905237</v>
       </c>
       <c r="S13" t="n">
         <v>186.2346889920369</v>
@@ -23470,16 +23470,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>6.596859810727778</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>65.31997266427543</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>145.6085800303786</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,16 +23890,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>83.05123379926094</v>
       </c>
       <c r="F19" t="n">
-        <v>136.2749052347516</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012459</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,16 +24127,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>103.8640922513197</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>36.41624546988385</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5874149221287643</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,13 +24418,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>142.4141550350968</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194261</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24652,10 +24652,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>44.26829212178288</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>7.065188669821282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>67.48492792567612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.22910392194259</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194259</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.2291039219421</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25561,10 +25561,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.2291039219421</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194255</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>65.54986409393139</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>980439.8521037722</v>
+        <v>980439.8521037723</v>
       </c>
     </row>
     <row r="6">
@@ -26314,46 +26314,46 @@
         <v>348942.7521923205</v>
       </c>
       <c r="C2" t="n">
+        <v>348942.7521923206</v>
+      </c>
+      <c r="D2" t="n">
         <v>348942.7521923205</v>
       </c>
-      <c r="D2" t="n">
-        <v>348942.7521923203</v>
-      </c>
       <c r="E2" t="n">
-        <v>311350.4288166186</v>
+        <v>311350.4288166185</v>
       </c>
       <c r="F2" t="n">
+        <v>343037.3048682529</v>
+      </c>
+      <c r="G2" t="n">
+        <v>343037.3048682526</v>
+      </c>
+      <c r="H2" t="n">
+        <v>343037.3048682526</v>
+      </c>
+      <c r="I2" t="n">
+        <v>343037.3048682526</v>
+      </c>
+      <c r="J2" t="n">
+        <v>343037.3048682526</v>
+      </c>
+      <c r="K2" t="n">
         <v>343037.3048682527</v>
       </c>
-      <c r="G2" t="n">
+      <c r="L2" t="n">
+        <v>343037.3048682526</v>
+      </c>
+      <c r="M2" t="n">
+        <v>343037.3048682525</v>
+      </c>
+      <c r="N2" t="n">
+        <v>343037.3048682525</v>
+      </c>
+      <c r="O2" t="n">
         <v>343037.3048682527</v>
       </c>
-      <c r="H2" t="n">
-        <v>343037.3048682527</v>
-      </c>
-      <c r="I2" t="n">
-        <v>343037.3048682527</v>
-      </c>
-      <c r="J2" t="n">
-        <v>343037.3048682525</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="P2" t="n">
         <v>343037.3048682526</v>
-      </c>
-      <c r="L2" t="n">
-        <v>343037.3048682527</v>
-      </c>
-      <c r="M2" t="n">
-        <v>343037.3048682529</v>
-      </c>
-      <c r="N2" t="n">
-        <v>343037.3048682528</v>
-      </c>
-      <c r="O2" t="n">
-        <v>343037.3048682528</v>
-      </c>
-      <c r="P2" t="n">
-        <v>343037.3048682528</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26366,19 @@
         <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657057</v>
+        <v>132804.2190657067</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929388</v>
+        <v>265413.0723929378</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545778</v>
+        <v>313577.1573545776</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704283</v>
+        <v>189308.2687704287</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911409</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417392</v>
+        <v>30877.42926417421</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049597</v>
+        <v>65018.34502049563</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273083</v>
+        <v>81897.40371273085</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202352</v>
+        <v>49839.5741320236</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>250332.6659748621</v>
       </c>
       <c r="C4" t="n">
-        <v>214511.7974947653</v>
+        <v>214511.7974947649</v>
       </c>
       <c r="D4" t="n">
         <v>139134.5471223413</v>
@@ -26427,7 +26427,7 @@
         <v>10451.66972713467</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678119</v>
       </c>
       <c r="G4" t="n">
         <v>10557.08828678121</v>
@@ -26436,28 +26436,28 @@
         <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678123</v>
+        <v>10557.08828678122</v>
       </c>
       <c r="K4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
-        <v>10557.08828678122</v>
+        <v>10557.08828678126</v>
       </c>
       <c r="M4" t="n">
         <v>10557.08828678123</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.08828678122</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="O4" t="n">
-        <v>10557.08828678123</v>
+        <v>10557.08828678127</v>
       </c>
       <c r="P4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678121</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.65038667485</v>
+        <v>72593.65038667493</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26522,46 +26522,46 @@
         <v>-644525.6975780011</v>
       </c>
       <c r="C6" t="n">
-        <v>-70966.91475482524</v>
+        <v>-70966.91475482601</v>
       </c>
       <c r="D6" t="n">
-        <v>-148542.6397628045</v>
+        <v>-148542.6397628033</v>
       </c>
       <c r="E6" t="n">
-        <v>-97815.88333247951</v>
+        <v>-98037.01464645412</v>
       </c>
       <c r="F6" t="n">
-        <v>42049.41798713608</v>
+        <v>42014.68006170026</v>
       </c>
       <c r="G6" t="n">
-        <v>231357.6867575642</v>
+        <v>231322.9488321285</v>
       </c>
       <c r="H6" t="n">
-        <v>231357.6867575643</v>
+        <v>231322.9488321285</v>
       </c>
       <c r="I6" t="n">
-        <v>231357.6867575644</v>
+        <v>231322.9488321285</v>
       </c>
       <c r="J6" t="n">
-        <v>162358.5323384501</v>
+        <v>162323.7944130144</v>
       </c>
       <c r="K6" t="n">
-        <v>200480.2574933904</v>
+        <v>200445.5195679545</v>
       </c>
       <c r="L6" t="n">
-        <v>166339.3417370684</v>
+        <v>166304.6038116329</v>
       </c>
       <c r="M6" t="n">
-        <v>149460.2830448337</v>
+        <v>149425.5451193976</v>
       </c>
       <c r="N6" t="n">
-        <v>181518.1126255409</v>
+        <v>181483.3747001048</v>
       </c>
       <c r="O6" t="n">
-        <v>231357.6867575644</v>
+        <v>231322.9488321286</v>
       </c>
       <c r="P6" t="n">
-        <v>231357.6867575645</v>
+        <v>231322.9488321285</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695738</v>
+        <v>717.3319511695746</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26790,13 +26790,13 @@
         <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154299</v>
+        <v>383.6877278154311</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490093</v>
+        <v>969.2208239490092</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26960,19 +26960,19 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000954</v>
+        <v>103.2769374000962</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479653</v>
+        <v>216.7329409479645</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974117</v>
+        <v>268.1763450974115</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267227</v>
+        <v>165.7342631267231</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139237</v>
+        <v>119.9738478139248</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846089</v>
+        <v>256.8971042846078</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489704</v>
+        <v>328.6359918489703</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506389</v>
+        <v>203.4874641506392</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139237</v>
+        <v>119.9738478139248</v>
       </c>
       <c r="L4" t="n">
-        <v>256.897104284609</v>
+        <v>256.8971042846076</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489704</v>
+        <v>328.6359918489705</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506389</v>
+        <v>203.4874641506392</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139237</v>
+        <v>119.9738478139248</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846089</v>
+        <v>256.8971042846078</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489704</v>
+        <v>328.6359918489703</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506389</v>
+        <v>203.4874641506392</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>142.1140765027779</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>191.7914676267079</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776178</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -27436,13 +27436,13 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590681</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27458,16 +27458,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>45.67798415687236</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
@@ -27506,16 +27506,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>217.328523119472</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27537,16 +27537,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>96.90821477233837</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>91.8574310231898</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27616,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>318.1554179177629</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>28.73126316233885</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9416328899766</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863706</v>
+        <v>99.30025118863695</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3066953660376</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.4722490968155</v>
       </c>
       <c r="U5" t="n">
         <v>251.1149531848473</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>344.9312728403171</v>
       </c>
     </row>
     <row r="6">
@@ -27695,7 +27695,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>90.22974038170227</v>
+        <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.33388804333228</v>
       </c>
       <c r="I6" t="n">
-        <v>36.27346476951739</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713976</v>
+        <v>4.360182258713863</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0237294698459</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9455960238326</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8398728426018</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>144.390867382194</v>
       </c>
     </row>
     <row r="7">
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>72.17058088115445</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6974299383169</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>150.7263422083602</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5499160015378</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.905236112643578</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1307056315185</v>
+        <v>119.1307056315184</v>
       </c>
       <c r="S7" t="n">
         <v>201.4735595059547</v>
       </c>
       <c r="T7" t="n">
-        <v>111.2929800298795</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2484721153922</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>326.7524312831158</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>26.03202314681252</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>3.298468424350347</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>55.73584717546889</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.041087216435699e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28497,7 +28497,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.188754148069675e-12</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28746,7 +28746,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>-7.032208304403596e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29992,13 +29992,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30697,7 +30697,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>8.682195192673605e-13</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365119</v>
+        <v>2.883746537365122</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579053</v>
+        <v>29.53316922579056</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1756383817688</v>
+        <v>111.175638381769</v>
       </c>
       <c r="J5" t="n">
-        <v>244.754382675693</v>
+        <v>244.7543826756932</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023585</v>
+        <v>366.8233736023589</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952464</v>
+        <v>455.0768316952469</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791133</v>
+        <v>506.3606591791138</v>
       </c>
       <c r="N5" t="n">
-        <v>514.554104028402</v>
+        <v>514.5541040284025</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974775</v>
+        <v>485.8788493974781</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562761</v>
+        <v>414.6863567562766</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868877</v>
+        <v>311.412183886888</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277618</v>
+        <v>181.146143427762</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020771</v>
+        <v>65.71337422020778</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731581</v>
+        <v>12.62360046731583</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892095</v>
+        <v>0.2306997229892097</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542940423270404</v>
+        <v>1.542940423270406</v>
       </c>
       <c r="H6" t="n">
-        <v>14.90155619316417</v>
+        <v>14.90155619316418</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189769</v>
+        <v>53.12316808189775</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862622</v>
+        <v>145.7740335862624</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453793</v>
+        <v>249.1510419453795</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438656</v>
+        <v>335.014323043866</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874177</v>
+        <v>390.9459133874181</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189109</v>
+        <v>401.2930884189114</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348667</v>
+        <v>367.1047769348671</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190651</v>
+        <v>294.6339480190655</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739555</v>
+        <v>196.9549915739557</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392916</v>
+        <v>95.79765189392927</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399192</v>
+        <v>28.65944163399195</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989039</v>
+        <v>6.219132670989046</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1015092383730529</v>
+        <v>0.101509238373053</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141854</v>
+        <v>1.293549420141856</v>
       </c>
       <c r="H7" t="n">
-        <v>11.5008302990794</v>
+        <v>11.50083029907942</v>
       </c>
       <c r="I7" t="n">
-        <v>38.9005589257205</v>
+        <v>38.90055892572055</v>
       </c>
       <c r="J7" t="n">
-        <v>91.4539440040291</v>
+        <v>91.4539440040292</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401172</v>
+        <v>150.2869235401174</v>
       </c>
       <c r="L7" t="n">
-        <v>192.3155201545444</v>
+        <v>192.3155201545447</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773272</v>
+        <v>202.7697513773274</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022532</v>
+        <v>197.9483399022534</v>
       </c>
       <c r="O7" t="n">
-        <v>182.8373307669596</v>
+        <v>182.8373307669598</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4489225960657</v>
+        <v>156.4489225960658</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.3171246266056</v>
+        <v>108.3171246266058</v>
       </c>
       <c r="R7" t="n">
-        <v>58.162685745651</v>
+        <v>58.16268574565106</v>
       </c>
       <c r="S7" t="n">
-        <v>22.54303853101758</v>
+        <v>22.5430385310176</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060648</v>
+        <v>5.526983886060655</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864668</v>
+        <v>0.07055724109864675</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869145</v>
+        <v>4.833130601869144</v>
       </c>
       <c r="H11" t="n">
-        <v>49.4972987763924</v>
+        <v>49.49729877639239</v>
       </c>
       <c r="I11" t="n">
         <v>186.3292675285604</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203918</v>
+        <v>410.2059184203917</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975128</v>
+        <v>614.7923367975127</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544658</v>
+        <v>762.7042574544657</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954562</v>
+        <v>848.655443795456</v>
       </c>
       <c r="N11" t="n">
-        <v>862.387576118017</v>
+        <v>862.3875761180168</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956807</v>
+        <v>814.3281336956804</v>
       </c>
       <c r="P11" t="n">
-        <v>695.010221962036</v>
+        <v>695.0102219620359</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.923732282597</v>
+        <v>521.9237322825969</v>
       </c>
       <c r="R11" t="n">
-        <v>303.599140169663</v>
+        <v>303.5991401696629</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900933</v>
+        <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.1570292096822</v>
+        <v>21.15702920968219</v>
       </c>
       <c r="U11" t="n">
         <v>0.3866504481495315</v>
@@ -31829,43 +31829,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858574</v>
+        <v>2.585952849858573</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837097</v>
+        <v>24.97486041837096</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469213</v>
+        <v>89.03390294469212</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193138</v>
+        <v>244.3158348193137</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>417.5746757598381</v>
       </c>
       <c r="L12" t="n">
-        <v>451.0669018060885</v>
+        <v>561.4806834747749</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821482</v>
+        <v>655.2214742821481</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340506</v>
+        <v>672.5632370340505</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924475</v>
+        <v>225.1169475382824</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383447</v>
+        <v>493.8035753383446</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047541</v>
+        <v>330.094612904754</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627655</v>
+        <v>48.03293999627653</v>
       </c>
       <c r="T12" t="n">
         <v>10.42320468868433</v>
@@ -31926,10 +31926,10 @@
         <v>322.3189048100542</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770065</v>
+        <v>339.8400926770064</v>
       </c>
       <c r="N13" t="n">
-        <v>331.759454853103</v>
+        <v>331.7594548531029</v>
       </c>
       <c r="O13" t="n">
         <v>306.4335533806239</v>
@@ -31938,16 +31938,16 @@
         <v>262.2068429493065</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194576</v>
+        <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811713</v>
+        <v>97.48008457811711</v>
       </c>
       <c r="S13" t="n">
         <v>37.7819090449354</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377487</v>
+        <v>9.263170188377485</v>
       </c>
       <c r="U13" t="n">
         <v>0.1182532364473723</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32072,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>209.9499448422525</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>171.7382405950826</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,10 +32327,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32549,7 +32549,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32564,7 +32564,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,13 +33497,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,31 +33734,31 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,13 +34445,13 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>550.5977692975241</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34781,7 +34781,7 @@
         <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>245.5483596572287</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>125.9385470877689</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900668</v>
+        <v>63.70847814900694</v>
       </c>
       <c r="K5" t="n">
-        <v>146.733522557378</v>
+        <v>146.7335225573784</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252591</v>
+        <v>219.3104167252596</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518405</v>
+        <v>276.0144259518411</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318111</v>
+        <v>285.1410404318116</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757908</v>
+        <v>255.7806379757913</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010066</v>
+        <v>183.453361001007</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243822</v>
+        <v>89.10649401243856</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.9364069195955</v>
+        <v>18.93640691959567</v>
       </c>
       <c r="K6" t="n">
-        <v>342.9474802368755</v>
+        <v>111.3096029710206</v>
       </c>
       <c r="L6" t="n">
-        <v>196.4599432639914</v>
+        <v>196.4599432639918</v>
       </c>
       <c r="M6" t="n">
-        <v>248.8118794653994</v>
+        <v>248.8118794653998</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355776</v>
+        <v>269.9513763355781</v>
       </c>
       <c r="O6" t="n">
-        <v>224.5085324904223</v>
+        <v>233.1182225455843</v>
       </c>
       <c r="P6" t="n">
-        <v>160.6595406047349</v>
+        <v>383.6877278154311</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.97321748793394</v>
+        <v>56.97321748793416</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142344</v>
+        <v>128.0174317142345</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148606</v>
+        <v>219.9055454148608</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391678</v>
+        <v>242.353628339168</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814818</v>
+        <v>242.080512281482</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809993</v>
+        <v>207.4224586809995</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609592</v>
+        <v>153.7274818609593</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491126</v>
+        <v>22.15508137491138</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>117.9333660065831</v>
       </c>
       <c r="K9" t="n">
         <v>451.0527332560634</v>
@@ -35267,13 +35267,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>490.1260733652765</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937055</v>
+        <v>229.1600138937054</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525323</v>
+        <v>394.7024857525321</v>
       </c>
       <c r="L11" t="n">
         <v>526.9378424844786</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681835</v>
+        <v>618.3092105681833</v>
       </c>
       <c r="N11" t="n">
-        <v>632.974512521426</v>
+        <v>632.9745125214258</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739939</v>
+        <v>584.2299222739937</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067664</v>
+        <v>463.7772262067663</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081475</v>
+        <v>299.6180424081474</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553085</v>
+        <v>88.01360235553079</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.4782081526471</v>
+        <v>117.478208152647</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>279.7332367854791</v>
       </c>
       <c r="L12" t="n">
-        <v>312.5125220262143</v>
+        <v>422.9263036949007</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601299</v>
+        <v>513.0874403601297</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507174</v>
+        <v>541.2215249507173</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480031</v>
+        <v>82.52070309383795</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240144</v>
+        <v>359.8291679240143</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187326</v>
+        <v>190.1128388187325</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186281</v>
+        <v>59.91672319186279</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070199</v>
+        <v>229.6099018070198</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703704</v>
+        <v>349.9089300703703</v>
       </c>
       <c r="M13" t="n">
         <v>379.423969638847</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323315</v>
+        <v>375.8916272323314</v>
       </c>
       <c r="O13" t="n">
         <v>331.0186812946636</v>
@@ -35586,7 +35586,7 @@
         <v>259.4854022142</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.3763835677632</v>
+        <v>95.37638356776314</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>37.76383318075232</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,10 +35975,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096352</v>
       </c>
       <c r="L19" t="n">
         <v>394.3420143191314</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36212,7 +36212,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>416.6233618831939</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
